--- a/Cv.xlsx
+++ b/Cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\OneDrive - riverw\ДАША\Другое\альтернативный код проект\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1D03EA-8F9B-42EA-A0DC-8AD1EEB9FC6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A67259E-8E9D-418B-AD69-68F063E4EECA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{313C0AA6-9A72-4474-91A1-AFEFE7A83AF4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{313C0AA6-9A72-4474-91A1-AFEFE7A83AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Библиотека</t>
   </si>
@@ -45,7 +45,10 @@
     <t>Кросс валидация собственной реализации</t>
   </si>
   <si>
-    <t>компоненты:</t>
+    <t>Кросс валидация библиотеки</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -407,339 +410,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6574C5-8DFD-40E9-A4B4-FA92C8208E16}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>33.107045762298903</v>
+      </c>
+      <c r="C2">
+        <v>52.3067893437617</v>
+      </c>
+      <c r="D2">
+        <v>46.382451643097603</v>
+      </c>
+      <c r="E2">
+        <v>47.069341864734298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>26.699559608245899</v>
+      </c>
+      <c r="C3">
+        <v>57.251875456711304</v>
+      </c>
+      <c r="D3">
+        <v>34.306190705013499</v>
+      </c>
+      <c r="E3">
+        <v>52.808541051551003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B4">
+        <v>20.805542198611398</v>
+      </c>
+      <c r="C4">
+        <v>64.525236952419306</v>
+      </c>
+      <c r="D4">
+        <v>29.5952770172774</v>
+      </c>
+      <c r="E4">
+        <v>52.726249491725198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>17.410571905526101</v>
+      </c>
+      <c r="C5">
+        <v>69.213238271309393</v>
+      </c>
+      <c r="D5">
+        <v>26.533162256728801</v>
+      </c>
+      <c r="E5">
+        <v>56.111577650758399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>14.278566260406</v>
+      </c>
+      <c r="C6">
+        <v>73.491189397798394</v>
+      </c>
+      <c r="D6">
+        <v>23.578162091327901</v>
+      </c>
+      <c r="E6">
+        <v>61.454217305551602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>12.02270842968</v>
+      </c>
+      <c r="C7">
+        <v>78.297300188981097</v>
+      </c>
+      <c r="D7">
+        <v>20.868171188291601</v>
+      </c>
+      <c r="E7">
+        <v>65.269420756933101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10.3909937561295</v>
+      </c>
+      <c r="C8">
+        <v>82.540285579534597</v>
+      </c>
+      <c r="D8">
+        <v>18.529340998779698</v>
+      </c>
+      <c r="E8">
+        <v>70.829594380186293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7.7060639242004001</v>
+      </c>
+      <c r="C9">
+        <v>88.664790621994101</v>
+      </c>
+      <c r="D9">
+        <v>17.061256549434699</v>
+      </c>
+      <c r="E9">
+        <v>73.256588759554404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6.0312547910681999</v>
+      </c>
+      <c r="C10">
+        <v>92.347005715284695</v>
+      </c>
+      <c r="D10">
+        <v>15.4170841569192</v>
+      </c>
+      <c r="E10">
+        <v>76.956689179021694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4.5592245879578703</v>
+      </c>
+      <c r="C11">
+        <v>95.661881556249995</v>
+      </c>
+      <c r="D11">
+        <v>14.1493458292555</v>
+      </c>
+      <c r="E11">
+        <v>79.774343641837405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3.7563412797096198</v>
+      </c>
+      <c r="C12">
+        <v>96.981580832502601</v>
+      </c>
+      <c r="D12">
+        <v>12.8457529350695</v>
+      </c>
+      <c r="E12">
+        <v>83.462898664927806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3.0584422074137998</v>
+      </c>
+      <c r="C13">
+        <v>98.198918066923298</v>
+      </c>
+      <c r="D13">
+        <v>11.7892444375659</v>
+      </c>
+      <c r="E13">
+        <v>85.923055087886098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.4249905550562998</v>
+      </c>
+      <c r="C14">
+        <v>99.177726825910398</v>
+      </c>
+      <c r="D14">
+        <v>10.8054360036048</v>
+      </c>
+      <c r="E14">
+        <v>88.123249332737004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.7105159554544</v>
+      </c>
+      <c r="C15">
+        <v>99.632733570209894</v>
+      </c>
+      <c r="D15">
+        <v>9.33536401846826</v>
+      </c>
+      <c r="E15">
+        <v>91.709152626907795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="B16">
+        <v>1.24151500499043</v>
+      </c>
+      <c r="C16">
+        <v>99.865243049179995</v>
+      </c>
+      <c r="D16">
+        <v>7.7495581301922796</v>
+      </c>
+      <c r="E16">
+        <v>95.243736627551797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="D2">
+      <c r="B17">
+        <v>0.93501608163593397</v>
+      </c>
+      <c r="C17">
+        <v>100.13329611178</v>
+      </c>
+      <c r="D17">
+        <v>6.4256821790799803</v>
+      </c>
+      <c r="E17">
+        <v>97.870845288726699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="E2">
+      <c r="B18">
+        <v>0.64040927453781904</v>
+      </c>
+      <c r="C18">
+        <v>100.30935072931599</v>
+      </c>
+      <c r="D18">
+        <v>5.4959003534141599</v>
+      </c>
+      <c r="E18">
+        <v>99.446493187237095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="F2">
+      <c r="B19">
+        <v>0.48132101560998602</v>
+      </c>
+      <c r="C19">
+        <v>100.40934949804399</v>
+      </c>
+      <c r="D19">
+        <v>4.7253196838829004</v>
+      </c>
+      <c r="E19">
+        <v>100.804783408695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="G2">
+      <c r="B20">
+        <v>0.360466165899263</v>
+      </c>
+      <c r="C20">
+        <v>100.464608300674</v>
+      </c>
+      <c r="D20">
+        <v>4.0970728372031804</v>
+      </c>
+      <c r="E20">
+        <v>102.035228851661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="B21">
+        <v>0.260185504142741</v>
+      </c>
+      <c r="C21">
+        <v>100.512155053201</v>
+      </c>
+      <c r="D21">
+        <v>3.5039293395213198</v>
+      </c>
+      <c r="E21">
+        <v>102.94601501624599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="I2">
+      <c r="B22">
+        <v>0.179178824447116</v>
+      </c>
+      <c r="C22">
+        <v>100.53429611721199</v>
+      </c>
+      <c r="D22">
+        <v>2.8680871865145301</v>
+      </c>
+      <c r="E22">
+        <v>103.680989555401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="J2">
+      <c r="B23">
+        <v>0.13190159402034601</v>
+      </c>
+      <c r="C23">
+        <v>100.549887663706</v>
+      </c>
+      <c r="D23">
+        <v>2.3375941936144802</v>
+      </c>
+      <c r="E23">
+        <v>103.903047804322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="K2">
+      <c r="B24">
+        <v>9.8946827855179595E-2</v>
+      </c>
+      <c r="C24">
+        <v>100.562608826239</v>
+      </c>
+      <c r="D24">
+        <v>1.84526538544671</v>
+      </c>
+      <c r="E24">
+        <v>103.84546570214501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="L2">
+      <c r="B25">
+        <v>7.4464172195659498E-2</v>
+      </c>
+      <c r="C25">
+        <v>100.569572909638</v>
+      </c>
+      <c r="D25">
+        <v>1.54028900861341</v>
+      </c>
+      <c r="E25">
+        <v>103.662240041708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="M2">
+      <c r="B26">
+        <v>5.3457955393909899E-2</v>
+      </c>
+      <c r="C26">
+        <v>100.577532930584</v>
+      </c>
+      <c r="D26">
+        <v>1.3284781286677401</v>
+      </c>
+      <c r="E26">
+        <v>103.58528689200099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="N2">
+      <c r="B27">
+        <v>3.9105614035335801E-2</v>
+      </c>
+      <c r="C27">
+        <v>100.585106741091</v>
+      </c>
+      <c r="D27">
+        <v>1.10112789601718</v>
+      </c>
+      <c r="E27">
+        <v>103.577096485792</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="O2">
+      <c r="B28">
+        <v>2.4867531430828399E-2</v>
+      </c>
+      <c r="C28">
+        <v>100.591581663429</v>
+      </c>
+      <c r="D28">
+        <v>0.90551003635056704</v>
+      </c>
+      <c r="E28">
+        <v>103.58386806397399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="P2">
+      <c r="B29">
+        <v>1.7805619827835E-2</v>
+      </c>
+      <c r="C29">
+        <v>100.59405137290899</v>
+      </c>
+      <c r="D29">
+        <v>0.70003417214641706</v>
+      </c>
+      <c r="E29">
+        <v>103.513499686866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="Q2">
+      <c r="B30">
+        <v>1.25519739863349E-2</v>
+      </c>
+      <c r="C30">
+        <v>100.59528513393801</v>
+      </c>
+      <c r="D30">
+        <v>0.55555804383552798</v>
+      </c>
+      <c r="E30">
+        <v>103.588074806132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>7.7495581301922298</v>
-      </c>
-      <c r="C3">
-        <v>6.4256821790799199</v>
-      </c>
-      <c r="D3">
-        <v>5.4959003534140898</v>
-      </c>
-      <c r="E3">
-        <v>4.7253196838828497</v>
-      </c>
-      <c r="F3">
-        <v>4.0970728372031298</v>
-      </c>
-      <c r="G3">
-        <v>3.5039293395212501</v>
-      </c>
-      <c r="H3">
-        <v>2.8680871865144502</v>
-      </c>
-      <c r="I3">
-        <v>2.3375941936144198</v>
-      </c>
-      <c r="J3">
-        <v>1.8452653854466701</v>
-      </c>
-      <c r="K3">
-        <v>1.54028900861337</v>
-      </c>
-      <c r="L3">
-        <v>1.3284781286677101</v>
-      </c>
-      <c r="M3">
-        <v>1.10112789601716</v>
-      </c>
-      <c r="N3">
-        <v>0.90551003635053795</v>
-      </c>
-      <c r="O3">
-        <v>0.70003417214636698</v>
-      </c>
-      <c r="P3">
-        <v>0.55555804383549801</v>
-      </c>
-      <c r="Q3">
-        <v>0.445456444578057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>21</v>
-      </c>
-      <c r="I6">
-        <v>22</v>
-      </c>
-      <c r="J6">
-        <v>23</v>
-      </c>
-      <c r="K6">
-        <v>24</v>
-      </c>
-      <c r="L6">
-        <v>25</v>
-      </c>
-      <c r="M6">
-        <v>26</v>
-      </c>
-      <c r="N6">
-        <v>27</v>
-      </c>
-      <c r="O6">
-        <v>28</v>
-      </c>
-      <c r="P6">
-        <v>29</v>
-      </c>
-      <c r="Q6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>1.24151500499043</v>
-      </c>
-      <c r="C7">
-        <v>0.93501608163593397</v>
-      </c>
-      <c r="D7">
-        <v>0.64040927453781904</v>
-      </c>
-      <c r="E7">
-        <v>0.48132101560998602</v>
-      </c>
-      <c r="F7">
-        <v>0.360466165899263</v>
-      </c>
-      <c r="G7">
-        <v>0.260185504142741</v>
-      </c>
-      <c r="H7">
-        <v>0.179178824447116</v>
-      </c>
-      <c r="I7">
-        <v>0.13190159402034601</v>
-      </c>
-      <c r="J7">
-        <v>9.8946827855179595E-2</v>
-      </c>
-      <c r="K7">
-        <v>7.4464172195659498E-2</v>
-      </c>
-      <c r="L7">
-        <v>5.3457955393909899E-2</v>
-      </c>
-      <c r="M7">
-        <v>3.9105614035335801E-2</v>
-      </c>
-      <c r="N7">
-        <v>2.4867531430828399E-2</v>
-      </c>
-      <c r="O7">
-        <v>1.7805619827835E-2</v>
-      </c>
-      <c r="P7">
-        <v>1.25519739863349E-2</v>
-      </c>
-      <c r="Q7">
+      <c r="B31">
         <v>9.4758710317831996E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>18</v>
-      </c>
-      <c r="F10">
-        <v>19</v>
-      </c>
-      <c r="G10">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <v>21</v>
-      </c>
-      <c r="I10">
-        <v>22</v>
-      </c>
-      <c r="J10">
-        <v>23</v>
-      </c>
-      <c r="K10">
-        <v>24</v>
-      </c>
-      <c r="L10">
-        <v>25</v>
-      </c>
-      <c r="M10">
-        <v>26</v>
-      </c>
-      <c r="N10">
-        <v>27</v>
-      </c>
-      <c r="O10">
-        <v>28</v>
-      </c>
-      <c r="P10">
-        <v>29</v>
-      </c>
-      <c r="Q10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>7.7495581301922298</v>
-      </c>
-      <c r="C11">
-        <v>6.4256821790799199</v>
-      </c>
-      <c r="D11">
-        <v>5.4959003534140898</v>
-      </c>
-      <c r="E11">
-        <v>4.7253196838828497</v>
-      </c>
-      <c r="F11">
-        <v>4.0970728372031298</v>
-      </c>
-      <c r="G11">
-        <v>3.5039293395212501</v>
-      </c>
-      <c r="H11">
-        <v>2.8680871865144502</v>
-      </c>
-      <c r="I11">
-        <v>2.3375941936144198</v>
-      </c>
-      <c r="J11">
-        <v>1.8452653854466701</v>
-      </c>
-      <c r="K11">
-        <v>1.54028900861337</v>
-      </c>
-      <c r="L11">
-        <v>1.3284781286677101</v>
-      </c>
-      <c r="M11">
-        <v>1.10112789601716</v>
-      </c>
-      <c r="N11">
-        <v>0.90551003635053795</v>
-      </c>
-      <c r="O11">
-        <v>0.70003417214636698</v>
-      </c>
-      <c r="P11">
-        <v>0.55555804383549801</v>
-      </c>
-      <c r="Q11">
-        <v>0.445456444578057</v>
+      <c r="C31">
+        <v>100.595437994085</v>
+      </c>
+      <c r="D31">
+        <v>0.44545644457808098</v>
+      </c>
+      <c r="E31">
+        <v>103.614043078995</v>
       </c>
     </row>
   </sheetData>
